--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,282 +43,264 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>trash</t>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointment</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>bottom</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>terrible</t>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>low</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>noise</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>bad</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>away</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>minutes</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>color</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>picture</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>box</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -328,121 +310,127 @@
     <t>bought</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>every</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
+    <t>grandson</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
-    <t>well</t>
+    <t>year</t>
   </si>
   <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -803,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -872,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -890,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -914,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -943,16 +931,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -964,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -972,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -990,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K5">
-        <v>0.85</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1014,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1022,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1040,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1064,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1072,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8148148148148148</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1090,31 +1078,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L7">
+        <v>19</v>
+      </c>
+      <c r="M7">
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7">
-        <v>0.8279569892473119</v>
-      </c>
-      <c r="L7">
-        <v>77</v>
-      </c>
-      <c r="M7">
-        <v>77</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1122,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8095238095238095</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1140,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.765625</v>
       </c>
       <c r="L8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1164,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1172,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8095238095238095</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1190,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K9">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1214,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1222,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1240,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K10">
-        <v>0.6981132075471698</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1264,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1272,13 +1260,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7631578947368421</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1290,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K11">
-        <v>0.5796269727403156</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L11">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>404</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1314,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>293</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1322,13 +1310,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.734375</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1340,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K12">
-        <v>0.5652173913043478</v>
+        <v>0.563845050215208</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1364,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1372,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7323943661971831</v>
+        <v>0.71875</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1390,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K13">
-        <v>0.5352697095435685</v>
+        <v>0.508298755186722</v>
       </c>
       <c r="L13">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M13">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1414,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1422,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6881720430107527</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C14">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1440,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K14">
-        <v>0.4786885245901639</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L14">
-        <v>584</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>584</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1464,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>636</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1472,13 +1460,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1490,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K15">
-        <v>0.3914373088685015</v>
+        <v>0.4655737704918033</v>
       </c>
       <c r="L15">
-        <v>128</v>
+        <v>568</v>
       </c>
       <c r="M15">
-        <v>128</v>
+        <v>568</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1514,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>199</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1522,13 +1510,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6486486486486487</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C16">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1540,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1564,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1572,13 +1560,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6302521008403361</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1590,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>0.3584905660377358</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1614,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1622,13 +1610,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6262135922330098</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C18">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1640,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K18">
-        <v>0.3554216867469879</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M18">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1664,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1672,13 +1660,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1690,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K19">
-        <v>0.3492063492063492</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L19">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1714,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1722,13 +1710,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1740,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K20">
-        <v>0.3404255319148936</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1764,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1772,13 +1760,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5952380952380952</v>
+        <v>0.64</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1790,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K21">
-        <v>0.2542372881355932</v>
+        <v>0.3</v>
       </c>
       <c r="L21">
         <v>15</v>
@@ -1814,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1822,13 +1810,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5925925925925926</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1840,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K22">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1864,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1872,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5625</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1890,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K23">
-        <v>0.2167832167832168</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1914,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1922,13 +1910,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5362318840579711</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C24">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1940,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K24">
-        <v>0.2063492063492063</v>
+        <v>0.232</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1964,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1972,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5333333333333333</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1990,31 +1978,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K25">
-        <v>0.1973684210526316</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2022,13 +2010,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5161290322580645</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2040,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K26">
-        <v>0.1935483870967742</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2064,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>150</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2072,13 +2060,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5116279069767442</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2090,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K27">
-        <v>0.1927710843373494</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2114,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2122,13 +2110,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4698795180722892</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2140,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K28">
-        <v>0.184</v>
+        <v>0.2008032128514056</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2164,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>102</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2172,13 +2160,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.462962962962963</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2190,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K29">
-        <v>0.1831726555652936</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L29">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2214,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>932</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2222,13 +2210,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4571428571428571</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2240,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K30">
-        <v>0.1363636363636364</v>
+        <v>0.1700262927256792</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2264,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>133</v>
+        <v>947</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2272,38 +2260,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4473684210526316</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>22</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31">
+        <v>0.1452991452991453</v>
+      </c>
+      <c r="L31">
         <v>17</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>17</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>21</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31">
-        <v>0.1122994652406417</v>
-      </c>
-      <c r="L31">
-        <v>42</v>
-      </c>
-      <c r="M31">
-        <v>42</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2314,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>332</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2322,13 +2310,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2340,31 +2328,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K32">
-        <v>0.09285714285714286</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L32">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1397</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2372,13 +2360,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4409448818897638</v>
+        <v>0.40625</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2390,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K33">
-        <v>0.08913649025069638</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2414,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2422,13 +2410,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4285714285714285</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2440,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K34">
-        <v>0.07782101167315175</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2464,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2472,13 +2460,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4218009478672986</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2490,31 +2478,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K35">
-        <v>0.06206896551724138</v>
+        <v>0.08842652795838751</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>272</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2522,13 +2510,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4181818181818182</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2540,31 +2528,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K36">
-        <v>0.05246913580246913</v>
+        <v>0.06574394463667819</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2572,13 +2560,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4081632653061225</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2590,31 +2578,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K37">
-        <v>0.04533333333333334</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>716</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2622,13 +2610,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3968253968253968</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2640,31 +2628,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K38">
-        <v>0.03826530612244898</v>
+        <v>0.05111821086261981</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N38">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>377</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2672,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3809523809523809</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="C39">
         <v>24</v>
@@ -2690,31 +2678,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39">
+        <v>0.05059920106524634</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
         <v>39</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K39">
-        <v>0.03561253561253561</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>28</v>
-      </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>677</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2722,13 +2710,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2740,31 +2728,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K40">
-        <v>0.03413654618473896</v>
+        <v>0.03420523138832998</v>
       </c>
       <c r="L40">
         <v>17</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2772,13 +2760,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3684210526315789</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2790,7 +2778,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41">
+        <v>0.02987197724039829</v>
+      </c>
+      <c r="L41">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>0.91</v>
+      </c>
+      <c r="O41">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2798,13 +2810,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3595505617977528</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2816,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2824,13 +2836,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2842,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2850,13 +2862,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.35</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2868,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2876,13 +2888,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3432835820895522</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2894,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2902,13 +2914,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3333333333333333</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2920,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2928,13 +2940,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3278688524590164</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2946,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2954,13 +2966,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3148148148148148</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2972,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2980,13 +2992,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2959183673469388</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2998,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>69</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3006,13 +3018,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.293103448275862</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3024,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3032,13 +3044,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2857142857142857</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3050,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3058,13 +3070,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2741935483870968</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3076,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3084,13 +3096,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2673267326732673</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="C53">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D53">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3102,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3110,13 +3122,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2463768115942029</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3128,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3136,13 +3148,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2422680412371134</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C55">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3154,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>147</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3162,13 +3174,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3180,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3188,13 +3200,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2285714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3206,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3214,7 +3226,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2162162162162162</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C58">
         <v>16</v>
@@ -3232,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3240,13 +3252,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.213768115942029</v>
+        <v>0.205</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D59">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3258,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>217</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3266,13 +3278,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2133333333333333</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3292,25 +3304,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2061855670103093</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3318,25 +3330,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2027027027027027</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>59</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3344,13 +3356,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3362,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>112</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3370,25 +3382,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1978021978021978</v>
+        <v>0.181547619047619</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>73</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3396,13 +3408,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.189873417721519</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D65">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3414,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3422,13 +3434,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.18</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3440,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>164</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3448,25 +3460,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1786743515850144</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C67">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D67">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>285</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3474,25 +3486,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1752577319587629</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3500,13 +3512,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1677215189873418</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C69">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D69">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3518,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>263</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3526,25 +3538,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1664190193164933</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C70">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D70">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="E70">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>561</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3552,13 +3564,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1635514018691589</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C71">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3570,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3578,7 +3590,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1592356687898089</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C72">
         <v>25</v>
@@ -3596,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3604,25 +3616,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1510416666666667</v>
+        <v>0.1390728476821192</v>
       </c>
       <c r="C73">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D73">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>163</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3630,13 +3642,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1481481481481481</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3648,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>92</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3656,13 +3668,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1384615384615385</v>
+        <v>0.1328125</v>
       </c>
       <c r="C75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3674,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3682,13 +3694,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1365638766519824</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C76">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D76">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3700,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>392</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3708,25 +3720,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1355932203389831</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>102</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3734,13 +3746,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1328125</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D78">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3752,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3760,25 +3772,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.125</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>217</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3786,13 +3798,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.12</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D80">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3804,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>154</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3812,25 +3824,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.112781954887218</v>
+        <v>0.09375</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>236</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3838,25 +3850,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1038961038961039</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>138</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3864,25 +3876,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.09937888198757763</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>145</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3890,25 +3902,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09625668449197861</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>169</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3916,25 +3928,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.09615384615384616</v>
+        <v>0.08099173553719008</v>
       </c>
       <c r="C85">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D85">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F85">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>329</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3942,25 +3954,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.09289617486338798</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>166</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3968,25 +3980,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.08928571428571429</v>
+        <v>0.06307692307692307</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D87">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F87">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>408</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3994,25 +4006,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08875739644970414</v>
+        <v>0.06264501160092807</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F88">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>154</v>
+        <v>404</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4020,25 +4032,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08757062146892655</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C89">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E89">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F89">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>323</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4046,25 +4058,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08250825082508251</v>
+        <v>0.04846938775510204</v>
       </c>
       <c r="C90">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D90">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E90">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="F90">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>556</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4072,25 +4084,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07853403141361257</v>
+        <v>0.04460093896713615</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>176</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4098,25 +4110,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06984126984126984</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
         <v>22</v>
       </c>
-      <c r="D92">
-        <v>24</v>
-      </c>
       <c r="E92">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F92">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>293</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4124,155 +4136,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06074766355140187</v>
+        <v>0.02199413489736071</v>
       </c>
       <c r="C93">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E93">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="F93">
-        <v>0.8100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.05828220858895705</v>
-      </c>
-      <c r="C94">
-        <v>38</v>
-      </c>
-      <c r="D94">
-        <v>41</v>
-      </c>
-      <c r="E94">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F94">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.05734767025089606</v>
-      </c>
-      <c r="C95">
-        <v>16</v>
-      </c>
-      <c r="D95">
-        <v>17</v>
-      </c>
-      <c r="E95">
-        <v>0.06</v>
-      </c>
-      <c r="F95">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.04846938775510204</v>
-      </c>
-      <c r="C96">
-        <v>38</v>
-      </c>
-      <c r="D96">
-        <v>48</v>
-      </c>
-      <c r="E96">
-        <v>0.21</v>
-      </c>
-      <c r="F96">
-        <v>0.79</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>0.04470588235294118</v>
-      </c>
-      <c r="C97">
-        <v>19</v>
-      </c>
-      <c r="D97">
-        <v>23</v>
-      </c>
-      <c r="E97">
-        <v>0.17</v>
-      </c>
-      <c r="F97">
-        <v>0.83</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.03976143141153082</v>
-      </c>
-      <c r="C98">
-        <v>20</v>
-      </c>
-      <c r="D98">
-        <v>21</v>
-      </c>
-      <c r="E98">
-        <v>0.05</v>
-      </c>
-      <c r="F98">
-        <v>0.95</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>483</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
